--- a/data/trans_bre/P16A03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,94</t>
+          <t>-4,29; 2,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,02</t>
+          <t>2,62; 8,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,36</t>
+          <t>-0,09; 4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,81</t>
+          <t>0,64; 5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 47,76</t>
+          <t>-59,45; 53,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,87; 1335,45</t>
+          <t>68,15; 1241,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 771,55</t>
+          <t>-29,32; 829,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 369,83</t>
+          <t>11,04; 345,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,21</t>
+          <t>0,59; 5,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,82</t>
+          <t>3,08; 9,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,68</t>
+          <t>0,62; 5,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,82</t>
+          <t>0,15; 3,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 1563,78</t>
+          <t>-10,02; 1636,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,81; 1800,49</t>
+          <t>62,3; 1818,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 766,48</t>
+          <t>5,95; 703,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 477,02</t>
+          <t>-0,37; 506,5</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,54</t>
+          <t>1,62; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 5,51</t>
+          <t>-0,06; 5,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,54</t>
+          <t>1,75; 9,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,89</t>
+          <t>4,23; 12,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,19; 528,51</t>
+          <t>40,78; 601,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 526,94</t>
+          <t>-16,43; 510,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,02; 2072,38</t>
+          <t>81,35; 1943,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>138,17; 1646,69</t>
+          <t>130,49; 1783,0</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,67</t>
+          <t>1,34; 4,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,15</t>
+          <t>3,17; 7,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,24</t>
+          <t>0,8; 4,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,95</t>
+          <t>-0,78; 2,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,98; 442,56</t>
+          <t>57,51; 403,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>179,48; 1048,58</t>
+          <t>182,99; 951,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 361,4</t>
+          <t>34,31; 366,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 149,71</t>
+          <t>-26,65; 146,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,54</t>
+          <t>-1,17; 3,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,87</t>
+          <t>3,53; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,52</t>
+          <t>1,05; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,49</t>
+          <t>0,47; 4,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 297,37</t>
+          <t>-36,46; 298,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>141,61; 1184,92</t>
+          <t>150,27; 1142,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,55; 702,04</t>
+          <t>45,44; 700,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 259,42</t>
+          <t>10,19; 240,48</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,27</t>
+          <t>5,15; 8,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,56</t>
+          <t>2,1; 5,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,7</t>
+          <t>2,64; 5,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,35</t>
+          <t>2,29; 6,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,01; 1603,19</t>
+          <t>64,99; 1492,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,97</t>
+          <t>2,16; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,71</t>
+          <t>3,73; 5,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,69</t>
+          <t>2,13; 3,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,72</t>
+          <t>1,86; 3,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,03; 219,28</t>
+          <t>79,24; 217,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>223,18; 535,57</t>
+          <t>201,3; 525,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>141,35; 362,45</t>
+          <t>126,35; 355,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>80,03; 229,49</t>
+          <t>80,14; 231,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
